--- a/ReleaseCompanion_WPF/ReleaseCompanion/Data.xlsx
+++ b/ReleaseCompanion_WPF/ReleaseCompanion/Data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C255B1-B47E-4661-956D-E0AD746F5AAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C344614-BD15-40E2-AE69-5132924E29DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paths" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Paths!$A$1:$M$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Paths!$A$1:$M$6</definedName>
     <definedName name="Environment_Type">Data!$A$2:$A$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>S.No</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Lessor Portal</t>
   </si>
   <si>
-    <t>Broker Portal</t>
-  </si>
-  <si>
     <t>\\lw-octopus\www\QA</t>
   </si>
   <si>
@@ -82,51 +79,27 @@
     <t>\\otbperf\BFSC\Automation</t>
   </si>
   <si>
-    <t>\\otbperf\BFSC\Automation_BP</t>
-  </si>
-  <si>
-    <t>\\lw-octopus\www\BrokerPortal</t>
-  </si>
-  <si>
     <t>http://otbperf:160/</t>
   </si>
   <si>
     <t>\\otbperf\BFSC\Back Up\Automation</t>
   </si>
   <si>
-    <t>\\otbperf\BFSC\Back Up\Automation_BP</t>
-  </si>
-  <si>
-    <t>\\lw-octopus\Back Up\BrokerPortal</t>
-  </si>
-  <si>
     <t>\\otbperf\BFSC\Service Commands\LWJobManager_BFSC_Automation Start.bat</t>
   </si>
   <si>
     <t>\\otbperf\BFSC\Service Commands\LWJobManager_BFSC_Automation Stop.bat</t>
   </si>
   <si>
-    <t>http://otbperf:164/Bodkin</t>
-  </si>
-  <si>
     <t>\\lw-octopus\www\Staging</t>
   </si>
   <si>
-    <t>\\lw-octopus\www\Staging_BP</t>
-  </si>
-  <si>
     <t>http://lw-octopus:82/</t>
   </si>
   <si>
-    <t>http://lw-octopus:81/bodkin</t>
-  </si>
-  <si>
     <t>\\lw-octopus\Back Up\Staging</t>
   </si>
   <si>
-    <t>\\lw-octopus\Back Up\Staging_BP</t>
-  </si>
-  <si>
     <t>\\lw-octopus\www\Commands\LWJobManager_BFSC_Staging Start.bat</t>
   </si>
   <si>
@@ -136,15 +109,6 @@
     <t>Nick Name</t>
   </si>
   <si>
-    <t>Local BP</t>
-  </si>
-  <si>
-    <t>QA BP</t>
-  </si>
-  <si>
-    <t>Automation BP</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -160,21 +124,6 @@
     <t>Automation</t>
   </si>
   <si>
-    <t>Staging BP</t>
-  </si>
-  <si>
-    <t>Super Scenario BP</t>
-  </si>
-  <si>
-    <t>\\192.168.0.10\www\BrokerPortal_SuperScenario</t>
-  </si>
-  <si>
-    <t>http://lw-octopus:94/bodkin</t>
-  </si>
-  <si>
-    <t>\\192.168.0.10\Back Up\BrokerPortal_SuperScenario</t>
-  </si>
-  <si>
     <t>\\192.168.0.10\www\LessorPortal_SuperScenario</t>
   </si>
   <si>
@@ -196,9 +145,6 @@
     <t>http://192.168.1.114:180/</t>
   </si>
   <si>
-    <t>http://192.168.1.114:181/Equirex#</t>
-  </si>
-  <si>
     <t>Database Server</t>
   </si>
   <si>
@@ -235,12 +181,6 @@
     <t>D:\Release\Database</t>
   </si>
   <si>
-    <t>D:\Release\Broker_Portal</t>
-  </si>
-  <si>
-    <t>D:\Release\Backup\Broker_Portal</t>
-  </si>
-  <si>
     <t>D:\Release\Backup\Lessor_Portal</t>
   </si>
   <si>
@@ -248,9 +188,6 @@
   </si>
   <si>
     <t>Database server</t>
-  </si>
-  <si>
-    <t>http://otbperftest:85/Bodkin</t>
   </si>
   <si>
     <t>App Backup Path</t>
@@ -660,10 +597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,12 +620,12 @@
     <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -700,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -712,333 +649,215 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M11" xr:uid="{83854300-C079-4C40-82A8-365742D78BA9}">
+  <autoFilter ref="A1:M6" xr:uid="{83854300-C079-4C40-82A8-365742D78BA9}">
     <filterColumn colId="2">
       <filters>
         <filter val="Lessor Portal"/>
@@ -1046,43 +865,30 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E3" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E5" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="F6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E2" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D4" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H9" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="I8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H8" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E7" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I4" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1090,7 +896,7 @@
           <x14:formula1>
             <xm:f>Data!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C13:C1048576 C2:C11</xm:sqref>
+          <xm:sqref>C8:C1048576 C2:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1102,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,17 +939,23 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
